--- a/matlab_code/Comparison.xlsx
+++ b/matlab_code/Comparison.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohom\General\Projects\Clubs\SpaceEnterprise\ElectronicRegulator\AutomaticElectronicPressureRegulator\matlab_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\seb\AutomaticElectronicPressureRegulator\matlab_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAF286A-A8D7-4B90-B1B6-7AB7F1118A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23235" windowHeight="13995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,6 +104,5027 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$999</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>758</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>818</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>897</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>948</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$999</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>2.9125595172047698E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4403428008178199E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0151017005866799E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4990998181223003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0201635026944601E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3905700517235004E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9885259284139999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2583600915007099E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9363353891908003E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5169766586670001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.8149064807455804E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.3183025506116306E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6804571505260993E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.19705096484855E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5647448207541296E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.00053281877821E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.03607763632226E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0534195491141299E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1216025231739601E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.14890254689205E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1960566386453301E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2129477965284401E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2691272421304601E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.30857092477708E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3366866489456401E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3486059387730299E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4069813867617E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4156975535490401E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.47770217822256E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.51106932458062E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5398829568241399E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5715444619919298E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.61251659184737E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6375861460016499E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6734838255676902E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6883473341943799E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.7270270782429199E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.73330717670926E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7600128447410199E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.79247006850893E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8189121286445599E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.8398495352084699E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.8524843468824999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8760734501879602E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.88244875709042E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8957415016852601E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.8663073767391999E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.9700362351563801E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.8628467832663399E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.95610938516993E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.9538489368913899E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9564882963261199E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.96920720868159E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9670302647051101E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.9624892018049601E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.9704709292204799E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.9632268335024398E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.9212893793281699E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$999</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>866</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>842</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>842</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>842</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$999</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>9.1065184431286406E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6651196423282208E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6925857910035292E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9681253521902097E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6925857910035292E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1260643777487304E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3895366197908501E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.47006263681792E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0978074585053598E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.2042047226133907E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5520364035945595E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6797304634153999E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8469342106150609E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5936211904751505E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.5936211904751505E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3379439501198704E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.9884361761825892E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.6923599508946497E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3515469076207403E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.4064055046556597E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.73532402476602E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1328878851269805E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0365420945855302E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.1732863130463702E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.8575617376278693E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5041623921114206E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.9363835851368504E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.2142001243658593E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.92315503509744E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.1573656993864799E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.9629737114516198E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.9763356919591109E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.6043381749428705E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.3110098138016696E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.7083577440922799E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.6772633869906593E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.0574588593484604E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.7607116233579399E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.3958243125915998E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.09875550210719E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.8138910183275598E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.1543278281713105E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.4534542689203105E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.5270718413889002E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.1824009719204099E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.4971087016096607E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.2245948231241201E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.2248749997714705E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.5790782276071904E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.2677922854193907E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.60535184860478E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.2391311693218398E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.9776655772049107E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.9776655772049107E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.6988723765787298E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.0196587256028493E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.7259846034017296E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.4040685782600004E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.7070640080659702E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.11976181349523E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.7670128874493399E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1323871560328598E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.8084792533862704E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.8084792533862704E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.1338325340901806E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.5098549220755104E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.1833394906809199E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.5199583710499696E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.5776321947104899E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.5640013503273304E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.2351317264000596E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.5776321947104899E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.9356957900838503E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.2743878075768598E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.9689416817518999E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.9789878553569206E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.3407698882192599E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.9960690648002404E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.6856290492163699E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.3878351186072505E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.3948657104435803E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.0327693924300202E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.4084865093667204E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.0717371225773196E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.4084865093667204E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.4634751995970097E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.7724105828221599E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.8172297079146698E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.4818114902787903E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2.46586773665931E-3</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.65507332274668E-3</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2.47700403131661E-3</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2.0782486334832498E-3</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.6513360208777401E-3</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2.4602918246892898E-3</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.6513360208777401E-3</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.23850201565831E-3</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2.0595194491224099E-3</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2.47142333894689E-3</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.1819850756923901E-3</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>8.2566801043887101E-4</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2.47142333894689E-3</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$999</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>907</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>853</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>693</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>511</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$999</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>9.5482684877171205E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.54498438206864E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7373749409984502E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5300416987809007E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5099573116391098E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5233512556725398E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7390316583879496E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4796065918137992E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5437353456363904E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5080863875683808E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5166939785878094E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5030304907865008E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0653674938866498E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4806946272784805E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.4771880882121295E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4804699054712605E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.4889607720282602E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.4871052749369092E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.4662888101028908E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.4574975659273697E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.4782536840261992E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.4225584412393308E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.4205873144701403E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.4289828301030998E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.4374404238760107E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.4337563040405598E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.4020106294335805E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0027640280462892E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.4258098693720607E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.3991078615191896E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.3953105409791092E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.3984141073053008E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.6018466869251398E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.3693412817982703E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.3531686527869896E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.3738930248695399E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.3591261749592005E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.9041022750606796E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.3225341565745905E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.3199497972959299E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.3104399208244204E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.2762454606145905E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.3216752415199704E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.2761852230764507E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.2899708968819193E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.2499700473544395E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.47153905776446E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.1133935763077698E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.2636699022502402E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.2482535162777407E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.8194138322283608E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.2159694191175402E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.2197931098372803E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.2085219721617009E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.1690729796249006E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.2009858433312799E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.1431569680080291E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.1751919407360091E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.1524247120496702E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.1616537008722999E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.1022591712837993E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.1582864682022997E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.1306696295443499E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.1387244752573395E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.1098044641079803E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.6860633853966997E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.5154841064889108E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.0967191811171001E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.0490911679386096E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.0267444181854201E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.0287688556405805E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.9926199275510207E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.9945077744667794E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.9836230002450796E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.9483469966590602E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.9921092208143996E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.9633447018808501E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.5452820995273199E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.9166391579346901E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.5360502771042908E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.9375184468197099E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.9390667076130002E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.4979926225705205E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.8728959610294908E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.8743312820516E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.86892256575832E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.8447070804493298E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.8458767944773597E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.83428017666491E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.7850803903916103E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.7987004983600993E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.4166180778441103E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.7375134295258894E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.7632305546653608E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.9875165529014608E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.7204471486065308E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.6895892322986501E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.6963069976930193E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.9547841466425899E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.6596603442708198E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.3014718893575992E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.6412950430109908E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.6289187348321094E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.6354728811793499E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.8639060211229891E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8.9741541360388501E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8.5915574946874504E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8.5852555940484007E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>8.5155260096172799E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8.1572289721711204E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8.5469512868112298E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8.5086466116212102E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8.4828811844044495E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>8.5211518889824096E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>8.4188110848243507E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8.4375937431233599E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8.3861057568952995E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.4046692142933609E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8.4039179116478999E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8.3970303651050605E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>8.3705387781717201E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8.3570041666607402E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8.2798624968070996E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.31063679615111E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8.3034713822554198E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8.2640561672647408E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8.26924256546018E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7.8536905351491108E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8.1777547519786206E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8.1514173748802304E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>8.2258265025656006E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8.1543242745005899E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8.1277413129685894E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8.1256743941739706E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8.1302962231073594E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8.0900472345794405E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8.0945227609158892E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8.0540838435432093E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>8.0528639712169597E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>8.0123294183763894E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>8.0042359004247002E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7.9757403242484703E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7.9675210969288798E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7.9646378249029395E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7.8942859523687108E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7.8962718349896103E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7.8931876033189793E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7.8279058424874006E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7.8194265748481699E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7.7901433787325699E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7.7882636996474399E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7.7656664975604096E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7.7617608900399301E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7.7270792085470299E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7.7369066105422504E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7.3785201471074403E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7.3698127056988699E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7.6956562080867097E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7.3140483735928104E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7.2515347460249697E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7.9614916394998604E-3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>7.5854931092501597E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>7.5618342321402097E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>7.1992278714521898E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>7.5285346853777198E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>7.4858800954493796E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>7.4387796120429003E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.4033230838634698E-3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7.0828334914727203E-3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>7.3804324358001799E-3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>7.3518538034366499E-3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>7.3828460963150403E-3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.9988772226877204E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>7.63196347788744E-3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>7.3002530785819296E-3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6.9344068098630496E-3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>7.22066657087732E-3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7.2283411776837801E-3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>7.2103362635522698E-3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6.8410549616711499E-3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>6.8271078567543903E-3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>7.4504971230260402E-3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>7.1116851606169099E-3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>7.0822980295117402E-3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>7.0308705565189896E-3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7.0560732792144297E-3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>7.0190529600289101E-3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6.9820326385097702E-3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6.96305976085529E-3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6.8931838668638296E-3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6.8888267143643002E-3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>6.8162843312220504E-3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>6.5281706686459804E-3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>7.1187129808880896E-3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>6.7933203932272904E-3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6.7382644746361697E-3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>6.6834954381326103E-3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$999</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>693</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>758</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>758</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>758</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$999</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>2.48834451416053E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8948320638002997E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1321133810231799E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2628717275819602E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5592197505741402E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8979421880012602E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1218474293043598E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2710637006889698E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6585162734649201E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7930825974398398E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1641536757951099E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3240185982456295E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4574702842136798E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8944491623433705E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.8362989523178498E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.3698079657581604E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.5489643410564203E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8927026495144302E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.7406440201469295E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.3435212808796197E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.5930021345581701E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.9517241024187001E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1761714187343496E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3187790611343999E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.7281141807844396E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5168948078925605E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.6449205686159102E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0480516782540804E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.01420814226683E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.951558906619801E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0332479821705701E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.04103577965053E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0903861194334599E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1046706537491801E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.07941394089333E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1656948121922001E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.25414120496152E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2134691895403899E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1454656224350701E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2686767060593801E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.2475343980622999E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2682619702849599E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4187692971523E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.39969352263637E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4069196341146501E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4403773128944799E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4787012478555701E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.5003564129629601E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.53391070999214E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5674650065140099E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.58663889038575E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.6208392979097301E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.6517256317970699E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.61017450571735E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.79074129930749E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.7362699897489999E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.6958387036759199E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.8036045599885699E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.83073496391918E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.85964130545475E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9030008177580999E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.92394346485763E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.9559957772399702E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.8954054181587101E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.0089907367218402E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.0496282138181702E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.0729428409468698E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.1005274849178E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.04952278973888E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.17900029249207E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.1946490776405098E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.2478233944996399E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2526574233050199E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.3088117079489898E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.33879364688808E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.3541720282179001E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.4099125337712999E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.43007282706396E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.4591754952448899E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.5113929317285301E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.53572813455535E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.4534116662332899E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.73762343415941E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.6233348647319299E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.6765655166363098E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.5970379580743399E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.73486185641465E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.7789478041579199E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.79834972047582E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.8471541270337101E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.8863067237633001E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.9009828591671301E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.9551327208234002E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.9792555838664102E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.0290618982590002E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.0529724976626599E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.09258075435007E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.9918804046055601E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.17768644438739E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.2011676874034501E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.2418322882255901E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.2869842992449402E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.3109124283095502E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.3570498394232002E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.3957266369643198E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.43231868741742E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.4670386741398498E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.5288931520688102E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.5315186494815098E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.5873473732486198E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.6221277494435499E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.6747122065000099E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.7046284518019198E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.74107446414819E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.77603777689724E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.8242934354402098E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.8627077776272798E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.7479598083744198E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.1128272385122996E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.98476792862498E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.0218985251441004E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.0721094923252101E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.7644111119949702E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.36025041693277E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.1798783889497697E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4.2425285231070297E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.9145020836346897E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4.3107476202064402E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4.3665608867189797E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4.4098400853672497E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4.45327332346045E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4.4881356670455497E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4.3451872864385798E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4.5701971664280196E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4.6324376821446798E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4.67145988070227E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.5010684446964598E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4.7446773616680099E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.80783708479146E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4.8662427157442102E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4.8934104360833603E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4.7136489975682103E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4.9985603667439997E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.0476398343944203E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5.0757780869460202E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5.1447745698044098E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.94678138188041E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.7651987245571703E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5.2646315169892202E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-550174816"/>
+        <c:axId val="-550172640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-550174816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-550172640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-550172640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-550174816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>154780</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>97630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,19 +5389,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="8.83984375" style="1"/>
+    <col min="4" max="4" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -407,7 +5427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>686</v>
       </c>
@@ -433,7 +5453,7 @@
         <v>2.48834451416053E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>696</v>
       </c>
@@ -459,7 +5479,7 @@
         <v>2.8948320638002997E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>697</v>
       </c>
@@ -485,7 +5505,7 @@
         <v>3.1321133810231799E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>702</v>
       </c>
@@ -511,7 +5531,7 @@
         <v>3.2628717275819602E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>708</v>
       </c>
@@ -537,7 +5557,7 @@
         <v>3.5592197505741402E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>714</v>
       </c>
@@ -563,7 +5583,7 @@
         <v>3.8979421880012602E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>718</v>
       </c>
@@ -589,7 +5609,7 @@
         <v>4.1218474293043598E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>722</v>
       </c>
@@ -615,7 +5635,7 @@
         <v>4.2710637006889698E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>728</v>
       </c>
@@ -641,7 +5661,7 @@
         <v>4.6585162734649201E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>734</v>
       </c>
@@ -667,7 +5687,7 @@
         <v>4.7930825974398398E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>738</v>
       </c>
@@ -693,7 +5713,7 @@
         <v>5.1641536757951099E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>745</v>
       </c>
@@ -719,7 +5739,7 @@
         <v>5.3240185982456295E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>745</v>
       </c>
@@ -745,7 +5765,7 @@
         <v>5.4574702842136798E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>758</v>
       </c>
@@ -771,7 +5791,7 @@
         <v>5.8944491623433705E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>760</v>
       </c>
@@ -797,7 +5817,7 @@
         <v>5.8362989523178498E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>765</v>
       </c>
@@ -823,7 +5843,7 @@
         <v>6.3698079657581604E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>772</v>
       </c>
@@ -849,7 +5869,7 @@
         <v>6.5489643410564203E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>774</v>
       </c>
@@ -875,7 +5895,7 @@
         <v>6.8927026495144302E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>780</v>
       </c>
@@ -901,7 +5921,7 @@
         <v>6.7406440201469295E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>790</v>
       </c>
@@ -927,7 +5947,7 @@
         <v>7.3435212808796197E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>787</v>
       </c>
@@ -953,7 +5973,7 @@
         <v>7.5930021345581701E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>800</v>
       </c>
@@ -979,7 +5999,7 @@
         <v>7.9517241024187001E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>797</v>
       </c>
@@ -1005,7 +6025,7 @@
         <v>8.1761714187343496E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>812</v>
       </c>
@@ -1031,7 +6051,7 @@
         <v>8.3187790611343999E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>811</v>
       </c>
@@ -1057,7 +6077,7 @@
         <v>8.7281141807844396E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>818</v>
       </c>
@@ -1083,7 +6103,7 @@
         <v>8.5168948078925605E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>822</v>
       </c>
@@ -1109,7 +6129,7 @@
         <v>9.6449205686159102E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>830</v>
       </c>
@@ -1135,7 +6155,7 @@
         <v>9.0480516782540804E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>833</v>
       </c>
@@ -1161,7 +6181,7 @@
         <v>1.01420814226683E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>838</v>
       </c>
@@ -1187,7 +6207,7 @@
         <v>9.951558906619801E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>845</v>
       </c>
@@ -1213,7 +6233,7 @@
         <v>1.0332479821705701E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>848</v>
       </c>
@@ -1239,7 +6259,7 @@
         <v>1.04103577965053E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>868</v>
       </c>
@@ -1265,7 +6285,7 @@
         <v>1.0903861194334599E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>859</v>
       </c>
@@ -1291,7 +6311,7 @@
         <v>1.1046706537491801E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>868</v>
       </c>
@@ -1317,7 +6337,7 @@
         <v>1.07941394089333E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>870</v>
       </c>
@@ -1343,7 +6363,7 @@
         <v>1.1656948121922001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>875</v>
       </c>
@@ -1369,7 +6389,7 @@
         <v>1.25414120496152E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>878</v>
       </c>
@@ -1395,7 +6415,7 @@
         <v>1.2134691895403899E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>886</v>
       </c>
@@ -1421,7 +6441,7 @@
         <v>1.1454656224350701E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>894</v>
       </c>
@@ -1447,7 +6467,7 @@
         <v>1.2686767060593801E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>897</v>
       </c>
@@ -1473,7 +6493,7 @@
         <v>1.2475343980622999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>900</v>
       </c>
@@ -1499,7 +6519,7 @@
         <v>1.2682619702849599E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>910</v>
       </c>
@@ -1525,7 +6545,7 @@
         <v>1.4187692971523E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>910</v>
       </c>
@@ -1551,7 +6571,7 @@
         <v>1.39969352263637E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>919</v>
       </c>
@@ -1577,7 +6597,7 @@
         <v>1.4069196341146501E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>921</v>
       </c>
@@ -1603,7 +6623,7 @@
         <v>1.4403773128944799E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>926</v>
       </c>
@@ -1629,7 +6649,7 @@
         <v>1.4787012478555701E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>932</v>
       </c>
@@ -1655,7 +6675,7 @@
         <v>1.5003564129629601E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>936</v>
       </c>
@@ -1681,7 +6701,7 @@
         <v>1.53391070999214E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>946</v>
       </c>
@@ -1707,7 +6727,7 @@
         <v>1.5674650065140099E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>948</v>
       </c>
@@ -1733,7 +6753,7 @@
         <v>1.58663889038575E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>952</v>
       </c>
@@ -1759,7 +6779,7 @@
         <v>1.6208392979097301E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>957</v>
       </c>
@@ -1785,7 +6805,7 @@
         <v>1.6517256317970699E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>966</v>
       </c>
@@ -1811,7 +6831,7 @@
         <v>1.61017450571735E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>968</v>
       </c>
@@ -1837,7 +6857,7 @@
         <v>1.79074129930749E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>976</v>
       </c>
@@ -1863,7 +6883,7 @@
         <v>1.7362699897489999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>979</v>
       </c>
@@ -1889,7 +6909,7 @@
         <v>1.6958387036759199E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>985</v>
       </c>
@@ -1915,7 +6935,7 @@
         <v>1.8036045599885699E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>996</v>
       </c>
@@ -1941,7 +6961,7 @@
         <v>1.83073496391918E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C61">
         <v>865</v>
       </c>
@@ -1961,7 +6981,7 @@
         <v>1.85964130545475E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C62">
         <v>866</v>
       </c>
@@ -1981,7 +7001,7 @@
         <v>1.9030008177580999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C63">
         <v>867</v>
       </c>
@@ -2001,7 +7021,7 @@
         <v>1.92394346485763E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C64">
         <v>864</v>
       </c>
@@ -2021,7 +7041,7 @@
         <v>1.9559957772399702E-3</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C65">
         <v>861</v>
       </c>
@@ -2041,7 +7061,7 @@
         <v>1.8954054181587101E-3</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C66">
         <v>861</v>
       </c>
@@ -2061,7 +7081,7 @@
         <v>2.0089907367218402E-3</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C67">
         <v>861</v>
       </c>
@@ -2081,7 +7101,7 @@
         <v>2.0496282138181702E-3</v>
       </c>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C68">
         <v>860</v>
       </c>
@@ -2101,7 +7121,7 @@
         <v>2.0729428409468698E-3</v>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C69">
         <v>855</v>
       </c>
@@ -2121,7 +7141,7 @@
         <v>2.1005274849178E-3</v>
       </c>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C70">
         <v>849</v>
       </c>
@@ -2141,7 +7161,7 @@
         <v>2.04952278973888E-3</v>
       </c>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C71">
         <v>848</v>
       </c>
@@ -2161,7 +7181,7 @@
         <v>2.17900029249207E-3</v>
       </c>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C72">
         <v>842</v>
       </c>
@@ -2181,7 +7201,7 @@
         <v>2.1946490776405098E-3</v>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C73">
         <v>840</v>
       </c>
@@ -2201,7 +7221,7 @@
         <v>2.2478233944996399E-3</v>
       </c>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C74">
         <v>842</v>
       </c>
@@ -2221,7 +7241,7 @@
         <v>2.2526574233050199E-3</v>
       </c>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C75">
         <v>842</v>
       </c>
@@ -2241,7 +7261,7 @@
         <v>2.3088117079489898E-3</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C76">
         <v>841</v>
       </c>
@@ -2261,7 +7281,7 @@
         <v>2.33879364688808E-3</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C77">
         <v>838</v>
       </c>
@@ -2281,7 +7301,7 @@
         <v>2.3541720282179001E-3</v>
       </c>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C78">
         <v>830</v>
       </c>
@@ -2301,7 +7321,7 @@
         <v>2.4099125337712999E-3</v>
       </c>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C79">
         <v>827</v>
       </c>
@@ -2321,7 +7341,7 @@
         <v>2.43007282706396E-3</v>
       </c>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C80">
         <v>825</v>
       </c>
@@ -2341,7 +7361,7 @@
         <v>2.4591754952448899E-3</v>
       </c>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C81">
         <v>824</v>
       </c>
@@ -2361,7 +7381,7 @@
         <v>2.5113929317285301E-3</v>
       </c>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C82">
         <v>823</v>
       </c>
@@ -2381,7 +7401,7 @@
         <v>2.53572813455535E-3</v>
       </c>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C83">
         <v>822</v>
       </c>
@@ -2401,7 +7421,7 @@
         <v>2.4534116662332899E-3</v>
       </c>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C84">
         <v>821</v>
       </c>
@@ -2421,7 +7441,7 @@
         <v>2.73762343415941E-3</v>
       </c>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C85">
         <v>821</v>
       </c>
@@ -2441,7 +7461,7 @@
         <v>2.6233348647319299E-3</v>
       </c>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C86">
         <v>819</v>
       </c>
@@ -2461,7 +7481,7 @@
         <v>2.6765655166363098E-3</v>
       </c>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C87">
         <v>816</v>
       </c>
@@ -2481,7 +7501,7 @@
         <v>2.5970379580743399E-3</v>
       </c>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C88">
         <v>812</v>
       </c>
@@ -2501,7 +7521,7 @@
         <v>2.73486185641465E-3</v>
       </c>
     </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C89">
         <v>806</v>
       </c>
@@ -2521,7 +7541,7 @@
         <v>2.7789478041579199E-3</v>
       </c>
     </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C90">
         <v>802</v>
       </c>
@@ -2541,7 +7561,7 @@
         <v>2.79834972047582E-3</v>
       </c>
     </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C91">
         <v>801</v>
       </c>
@@ -2561,7 +7581,7 @@
         <v>2.8471541270337101E-3</v>
       </c>
     </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C92">
         <v>801</v>
       </c>
@@ -2581,7 +7601,7 @@
         <v>2.8863067237633001E-3</v>
       </c>
     </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C93">
         <v>800</v>
       </c>
@@ -2601,7 +7621,7 @@
         <v>2.9009828591671301E-3</v>
       </c>
     </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C94">
         <v>800</v>
       </c>
@@ -2621,7 +7641,7 @@
         <v>2.9551327208234002E-3</v>
       </c>
     </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C95">
         <v>799</v>
       </c>
@@ -2641,7 +7661,7 @@
         <v>2.9792555838664102E-3</v>
       </c>
     </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C96">
         <v>796</v>
       </c>
@@ -2661,7 +7681,7 @@
         <v>3.0290618982590002E-3</v>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C97">
         <v>790</v>
       </c>
@@ -2681,7 +7701,7 @@
         <v>3.0529724976626599E-3</v>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C98">
         <v>787</v>
       </c>
@@ -2701,7 +7721,7 @@
         <v>3.09258075435007E-3</v>
       </c>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C99">
         <v>788</v>
       </c>
@@ -2721,7 +7741,7 @@
         <v>2.9918804046055601E-3</v>
       </c>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C100">
         <v>788</v>
       </c>
@@ -2741,7 +7761,7 @@
         <v>3.17768644438739E-3</v>
       </c>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C101">
         <v>786</v>
       </c>
@@ -2761,7 +7781,7 @@
         <v>3.2011676874034501E-3</v>
       </c>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C102">
         <v>783</v>
       </c>
@@ -2781,7 +7801,7 @@
         <v>3.2418322882255901E-3</v>
       </c>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C103">
         <v>776</v>
       </c>
@@ -2801,7 +7821,7 @@
         <v>3.2869842992449402E-3</v>
       </c>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C104">
         <v>775</v>
       </c>
@@ -2821,7 +7841,7 @@
         <v>3.3109124283095502E-3</v>
       </c>
     </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C105">
         <v>777</v>
       </c>
@@ -2841,7 +7861,7 @@
         <v>3.3570498394232002E-3</v>
       </c>
     </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C106">
         <v>776</v>
       </c>
@@ -2861,7 +7881,7 @@
         <v>3.3957266369643198E-3</v>
       </c>
     </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C107">
         <v>773</v>
       </c>
@@ -2881,7 +7901,7 @@
         <v>3.43231868741742E-3</v>
       </c>
     </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C108">
         <v>766</v>
       </c>
@@ -2901,7 +7921,7 @@
         <v>3.4670386741398498E-3</v>
       </c>
     </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C109">
         <v>764</v>
       </c>
@@ -2921,7 +7941,7 @@
         <v>3.5288931520688102E-3</v>
       </c>
     </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C110">
         <v>766</v>
       </c>
@@ -2941,7 +7961,7 @@
         <v>3.5315186494815098E-3</v>
       </c>
     </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C111">
         <v>765</v>
       </c>
@@ -2961,7 +7981,7 @@
         <v>3.5873473732486198E-3</v>
       </c>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C112">
         <v>759</v>
       </c>
@@ -2981,7 +8001,7 @@
         <v>3.6221277494435499E-3</v>
       </c>
     </row>
-    <row r="113" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C113">
         <v>757</v>
       </c>
@@ -3001,7 +8021,7 @@
         <v>3.6747122065000099E-3</v>
       </c>
     </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C114">
         <v>757</v>
       </c>
@@ -3021,7 +8041,7 @@
         <v>3.7046284518019198E-3</v>
       </c>
     </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C115">
         <v>756</v>
       </c>
@@ -3041,7 +8061,7 @@
         <v>3.74107446414819E-3</v>
       </c>
     </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C116">
         <v>753</v>
       </c>
@@ -3061,7 +8081,7 @@
         <v>3.77603777689724E-3</v>
       </c>
     </row>
-    <row r="117" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C117">
         <v>751</v>
       </c>
@@ -3081,7 +8101,7 @@
         <v>3.8242934354402098E-3</v>
       </c>
     </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C118">
         <v>749</v>
       </c>
@@ -3101,7 +8121,7 @@
         <v>3.8627077776272798E-3</v>
       </c>
     </row>
-    <row r="119" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C119">
         <v>741</v>
       </c>
@@ -3121,7 +8141,7 @@
         <v>3.7479598083744198E-3</v>
       </c>
     </row>
-    <row r="120" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C120">
         <v>738</v>
       </c>
@@ -3141,7 +8161,7 @@
         <v>4.1128272385122996E-3</v>
       </c>
     </row>
-    <row r="121" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C121">
         <v>737</v>
       </c>
@@ -3161,7 +8181,7 @@
         <v>3.98476792862498E-3</v>
       </c>
     </row>
-    <row r="122" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C122">
         <v>737</v>
       </c>
@@ -3181,7 +8201,7 @@
         <v>4.0218985251441004E-3</v>
       </c>
     </row>
-    <row r="123" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C123">
         <v>737</v>
       </c>
@@ -3201,7 +8221,7 @@
         <v>4.0721094923252101E-3</v>
       </c>
     </row>
-    <row r="124" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C124">
         <v>735</v>
       </c>
@@ -3221,7 +8241,7 @@
         <v>3.7644111119949702E-3</v>
       </c>
     </row>
-    <row r="125" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C125">
         <v>732</v>
       </c>
@@ -3241,7 +8261,7 @@
         <v>4.36025041693277E-3</v>
       </c>
     </row>
-    <row r="126" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C126">
         <v>726</v>
       </c>
@@ -3261,7 +8281,7 @@
         <v>4.1798783889497697E-3</v>
       </c>
     </row>
-    <row r="127" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C127">
         <v>724</v>
       </c>
@@ -3281,7 +8301,7 @@
         <v>4.2425285231070297E-3</v>
       </c>
     </row>
-    <row r="128" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C128">
         <v>725</v>
       </c>
@@ -3301,7 +8321,7 @@
         <v>3.9145020836346897E-3</v>
       </c>
     </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C129">
         <v>725</v>
       </c>
@@ -3321,7 +8341,7 @@
         <v>4.3107476202064402E-3</v>
       </c>
     </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C130">
         <v>720</v>
       </c>
@@ -3341,7 +8361,7 @@
         <v>4.3665608867189797E-3</v>
       </c>
     </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C131">
         <v>714</v>
       </c>
@@ -3361,7 +8381,7 @@
         <v>4.4098400853672497E-3</v>
       </c>
     </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C132">
         <v>713</v>
       </c>
@@ -3381,7 +8401,7 @@
         <v>4.45327332346045E-3</v>
       </c>
     </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C133">
         <v>714</v>
       </c>
@@ -3401,7 +8421,7 @@
         <v>4.4881356670455497E-3</v>
       </c>
     </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C134">
         <v>714</v>
       </c>
@@ -3421,7 +8441,7 @@
         <v>4.3451872864385798E-3</v>
       </c>
     </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C135">
         <v>710</v>
       </c>
@@ -3441,7 +8461,7 @@
         <v>4.5701971664280196E-3</v>
       </c>
     </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C136">
         <v>708</v>
       </c>
@@ -3461,7 +8481,7 @@
         <v>4.6324376821446798E-3</v>
       </c>
     </row>
-    <row r="137" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C137">
         <v>701</v>
       </c>
@@ -3481,7 +8501,7 @@
         <v>4.67145988070227E-3</v>
       </c>
     </row>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C138">
         <v>701</v>
       </c>
@@ -3501,7 +8521,7 @@
         <v>4.5010684446964598E-3</v>
       </c>
     </row>
-    <row r="139" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C139">
         <v>702</v>
       </c>
@@ -3521,7 +8541,7 @@
         <v>4.7446773616680099E-3</v>
       </c>
     </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C140">
         <v>702</v>
       </c>
@@ -3541,7 +8561,7 @@
         <v>4.80783708479146E-3</v>
       </c>
     </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C141">
         <v>697</v>
       </c>
@@ -3561,7 +8581,7 @@
         <v>4.8662427157442102E-3</v>
       </c>
     </row>
-    <row r="142" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C142">
         <v>691</v>
       </c>
@@ -3581,7 +8601,7 @@
         <v>4.8934104360833603E-3</v>
       </c>
     </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C143">
         <v>691</v>
       </c>
@@ -3601,7 +8621,7 @@
         <v>4.7136489975682103E-3</v>
       </c>
     </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C144">
         <v>691</v>
       </c>
@@ -3621,7 +8641,7 @@
         <v>4.9985603667439997E-3</v>
       </c>
     </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C145">
         <v>691</v>
       </c>
@@ -3641,7 +8661,7 @@
         <v>5.0476398343944203E-3</v>
       </c>
     </row>
-    <row r="146" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C146">
         <v>685</v>
       </c>
@@ -3661,7 +8681,7 @@
         <v>5.0757780869460202E-3</v>
       </c>
     </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C147">
         <v>678</v>
       </c>
@@ -3681,7 +8701,7 @@
         <v>5.1447745698044098E-3</v>
       </c>
     </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C148">
         <v>677</v>
       </c>
@@ -3701,7 +8721,7 @@
         <v>4.94678138188041E-3</v>
       </c>
     </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C149">
         <v>676</v>
       </c>
@@ -3721,7 +8741,7 @@
         <v>4.7651987245571703E-3</v>
       </c>
     </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C150">
         <v>676</v>
       </c>
@@ -3741,7 +8761,7 @@
         <v>5.2646315169892202E-3</v>
       </c>
     </row>
-    <row r="151" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C151">
         <v>675</v>
       </c>
@@ -3761,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C152">
         <v>672</v>
       </c>
@@ -3775,7 +8795,7 @@
         <v>7.7882636996474399E-3</v>
       </c>
     </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C153">
         <v>669</v>
       </c>
@@ -3789,7 +8809,7 @@
         <v>7.7656664975604096E-3</v>
       </c>
     </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C154">
         <v>669</v>
       </c>
@@ -3803,7 +8823,7 @@
         <v>7.7617608900399301E-3</v>
       </c>
     </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C155">
         <v>667</v>
       </c>
@@ -3817,7 +8837,7 @@
         <v>7.7270792085470299E-3</v>
       </c>
     </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C156">
         <v>662</v>
       </c>
@@ -3831,7 +8851,7 @@
         <v>7.7369066105422504E-3</v>
       </c>
     </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C157">
         <v>659</v>
       </c>
@@ -3845,7 +8865,7 @@
         <v>7.3785201471074403E-3</v>
       </c>
     </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C158">
         <v>660</v>
       </c>
@@ -3859,7 +8879,7 @@
         <v>7.3698127056988699E-3</v>
       </c>
     </row>
-    <row r="159" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C159">
         <v>660</v>
       </c>
@@ -3873,7 +8893,7 @@
         <v>7.6956562080867097E-3</v>
       </c>
     </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C160">
         <v>653</v>
       </c>
@@ -3887,7 +8907,7 @@
         <v>7.3140483735928104E-3</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C161">
         <v>645</v>
       </c>
@@ -3901,7 +8921,7 @@
         <v>7.2515347460249697E-3</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C162">
         <v>646</v>
       </c>
@@ -3915,7 +8935,7 @@
         <v>7.9614916394998604E-3</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C163">
         <v>647</v>
       </c>
@@ -3929,7 +8949,7 @@
         <v>7.5854931092501597E-3</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C164">
         <v>648</v>
       </c>
@@ -3943,7 +8963,7 @@
         <v>7.5618342321402097E-3</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C165">
         <v>647</v>
       </c>
@@ -3957,7 +8977,7 @@
         <v>7.1992278714521898E-3</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C166">
         <v>639</v>
       </c>
@@ -3971,7 +8991,7 @@
         <v>7.5285346853777198E-3</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C167">
         <v>635</v>
       </c>
@@ -3985,7 +9005,7 @@
         <v>7.4858800954493796E-3</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C168">
         <v>635</v>
       </c>
@@ -3999,7 +9019,7 @@
         <v>7.4387796120429003E-3</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C169">
         <v>635</v>
       </c>
@@ -4013,7 +9033,7 @@
         <v>7.4033230838634698E-3</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C170">
         <v>634</v>
       </c>
@@ -4027,7 +9047,7 @@
         <v>7.0828334914727203E-3</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C171">
         <v>629</v>
       </c>
@@ -4041,7 +9061,7 @@
         <v>7.3804324358001799E-3</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C172">
         <v>628</v>
       </c>
@@ -4055,7 +9075,7 @@
         <v>7.3518538034366499E-3</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C173">
         <v>628</v>
       </c>
@@ -4069,7 +9089,7 @@
         <v>7.3828460963150403E-3</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C174">
         <v>626</v>
       </c>
@@ -4083,7 +9103,7 @@
         <v>6.9988772226877204E-3</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C175">
         <v>620</v>
       </c>
@@ -4097,7 +9117,7 @@
         <v>7.63196347788744E-3</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C176">
         <v>618</v>
       </c>
@@ -4111,7 +9131,7 @@
         <v>7.3002530785819296E-3</v>
       </c>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C177">
         <v>618</v>
       </c>
@@ -4125,7 +9145,7 @@
         <v>6.9344068098630496E-3</v>
       </c>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C178">
         <v>618</v>
       </c>
@@ -4139,7 +9159,7 @@
         <v>7.22066657087732E-3</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C179">
         <v>615</v>
       </c>
@@ -4153,7 +9173,7 @@
         <v>7.2283411776837801E-3</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C180">
         <v>609</v>
       </c>
@@ -4167,7 +9187,7 @@
         <v>7.2103362635522698E-3</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C181">
         <v>605</v>
       </c>
@@ -4181,7 +9201,7 @@
         <v>6.8410549616711499E-3</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C182">
         <v>607</v>
       </c>
@@ -4195,7 +9215,7 @@
         <v>6.8271078567543903E-3</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C183">
         <v>603</v>
       </c>
@@ -4209,7 +9229,7 @@
         <v>7.4504971230260402E-3</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C184">
         <v>603</v>
       </c>
@@ -4223,7 +9243,7 @@
         <v>7.1116851606169099E-3</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C185">
         <v>602</v>
       </c>
@@ -4237,7 +9257,7 @@
         <v>7.0822980295117402E-3</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C186">
         <v>599</v>
       </c>
@@ -4251,7 +9271,7 @@
         <v>7.0308705565189896E-3</v>
       </c>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C187">
         <v>596</v>
       </c>
@@ -4265,7 +9285,7 @@
         <v>7.0560732792144297E-3</v>
       </c>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C188">
         <v>595</v>
       </c>
@@ -4279,7 +9299,7 @@
         <v>7.0190529600289101E-3</v>
       </c>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C189">
         <v>593</v>
       </c>
@@ -4293,7 +9313,7 @@
         <v>6.9820326385097702E-3</v>
       </c>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C190">
         <v>592</v>
       </c>
@@ -4307,7 +9327,7 @@
         <v>6.96305976085529E-3</v>
       </c>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C191">
         <v>590</v>
       </c>
@@ -4321,7 +9341,7 @@
         <v>6.8931838668638296E-3</v>
       </c>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C192">
         <v>584</v>
       </c>
@@ -4335,7 +9355,7 @@
         <v>6.8888267143643002E-3</v>
       </c>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C193">
         <v>581</v>
       </c>
@@ -4349,7 +9369,7 @@
         <v>6.8162843312220504E-3</v>
       </c>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C194">
         <v>582</v>
       </c>
@@ -4363,7 +9383,7 @@
         <v>6.5281706686459804E-3</v>
       </c>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C195">
         <v>581</v>
       </c>
@@ -4377,7 +9397,7 @@
         <v>7.1187129808880896E-3</v>
       </c>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C196">
         <v>577</v>
       </c>
@@ -4391,7 +9411,7 @@
         <v>6.7933203932272904E-3</v>
       </c>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C197">
         <v>574</v>
       </c>
@@ -4405,7 +9425,7 @@
         <v>6.7382644746361697E-3</v>
       </c>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C198">
         <v>573</v>
       </c>
@@ -4419,7 +9439,7 @@
         <v>6.6834954381326103E-3</v>
       </c>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C199">
         <v>571</v>
       </c>
@@ -4433,7 +9453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C200">
         <v>570</v>
       </c>
@@ -4441,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C201">
         <v>567</v>
       </c>
@@ -4449,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C202">
         <v>556</v>
       </c>
@@ -4457,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C203">
         <v>554</v>
       </c>
@@ -4465,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C204">
         <v>556</v>
       </c>
@@ -4473,7 +9493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C205">
         <v>556</v>
       </c>
@@ -4481,7 +9501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C206">
         <v>556</v>
       </c>
@@ -4489,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C207">
         <v>554</v>
       </c>
@@ -4497,7 +9517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C208">
         <v>549</v>
       </c>
@@ -4505,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C209">
         <v>548</v>
       </c>
@@ -4513,7 +9533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C210">
         <v>546</v>
       </c>
@@ -4521,7 +9541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C211">
         <v>540</v>
       </c>
@@ -4529,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C212">
         <v>540</v>
       </c>
@@ -4537,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C213">
         <v>540</v>
       </c>
@@ -4545,7 +9565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C214">
         <v>539</v>
       </c>
@@ -4553,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C215">
         <v>535</v>
       </c>
@@ -4561,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C216">
         <v>529</v>
       </c>
@@ -4569,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C217">
         <v>529</v>
       </c>
@@ -4577,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C218">
         <v>529</v>
       </c>
@@ -4585,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C219">
         <v>528</v>
       </c>
@@ -4593,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C220">
         <v>524</v>
       </c>
@@ -4601,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C221">
         <v>521</v>
       </c>
@@ -4609,7 +9629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C222">
         <v>520</v>
       </c>
@@ -4617,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C223">
         <v>517</v>
       </c>
@@ -4625,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C224">
         <v>516</v>
       </c>
@@ -4633,7 +9653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C225">
         <v>514</v>
       </c>
@@ -4641,7 +9661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C226">
         <v>508</v>
       </c>
@@ -4649,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C227">
         <v>508</v>
       </c>
@@ -4657,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C228">
         <v>507</v>
       </c>
@@ -4665,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C229">
         <v>505</v>
       </c>
@@ -4673,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C230">
         <v>505</v>
       </c>
@@ -4681,7 +9701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C231">
         <v>495</v>
       </c>
@@ -4689,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C232">
         <v>491</v>
       </c>
@@ -4697,7 +9717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C233">
         <v>491</v>
       </c>
@@ -4705,7 +9725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C234">
         <v>491</v>
       </c>
@@ -4713,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C235">
         <v>491</v>
       </c>
@@ -4721,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C236">
         <v>489</v>
       </c>
@@ -4729,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C237">
         <v>487</v>
       </c>
@@ -4737,7 +9757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C238">
         <v>484</v>
       </c>
@@ -4745,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C239">
         <v>484</v>
       </c>
@@ -4753,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C240">
         <v>481</v>
       </c>
@@ -4761,7 +9781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C241">
         <v>474</v>
       </c>
@@ -4769,7 +9789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C242">
         <v>470</v>
       </c>
@@ -4777,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C243">
         <v>470</v>
       </c>
@@ -4785,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C244">
         <v>470</v>
       </c>
@@ -4793,7 +9813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C245">
         <v>469</v>
       </c>
@@ -4801,7 +9821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C246">
         <v>467</v>
       </c>
@@ -4809,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C247">
         <v>465</v>
       </c>
@@ -4817,7 +9837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C248">
         <v>464</v>
       </c>
@@ -4825,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C249">
         <v>460</v>
       </c>
@@ -4833,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C250">
         <v>457</v>
       </c>
@@ -4841,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C251">
         <v>457</v>
       </c>
@@ -4849,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C252">
         <v>455</v>
       </c>
@@ -4857,7 +9877,7 @@
         <v>2.46586773665931E-3</v>
       </c>
     </row>
-    <row r="253" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C253">
         <v>452</v>
       </c>
@@ -4865,7 +9885,7 @@
         <v>1.65507332274668E-3</v>
       </c>
     </row>
-    <row r="254" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C254">
         <v>449</v>
       </c>
@@ -4873,7 +9893,7 @@
         <v>2.47700403131661E-3</v>
       </c>
     </row>
-    <row r="255" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C255">
         <v>448</v>
       </c>
@@ -4881,7 +9901,7 @@
         <v>2.0782486334832498E-3</v>
       </c>
     </row>
-    <row r="256" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C256">
         <v>445</v>
       </c>
@@ -4889,7 +9909,7 @@
         <v>1.6513360208777401E-3</v>
       </c>
     </row>
-    <row r="257" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C257">
         <v>444</v>
       </c>
@@ -4897,7 +9917,7 @@
         <v>2.4602918246892898E-3</v>
       </c>
     </row>
-    <row r="258" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C258">
         <v>441</v>
       </c>
@@ -4905,7 +9925,7 @@
         <v>1.6513360208777401E-3</v>
       </c>
     </row>
-    <row r="259" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C259">
         <v>441</v>
       </c>
@@ -4913,7 +9933,7 @@
         <v>1.23850201565831E-3</v>
       </c>
     </row>
-    <row r="260" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C260">
         <v>437</v>
       </c>
@@ -4921,7 +9941,7 @@
         <v>2.0595194491224099E-3</v>
       </c>
     </row>
-    <row r="261" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C261">
         <v>432</v>
       </c>
@@ -4929,7 +9949,7 @@
         <v>2.47142333894689E-3</v>
       </c>
     </row>
-    <row r="262" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C262">
         <v>432</v>
       </c>
@@ -4937,7 +9957,7 @@
         <v>1.1819850756923901E-3</v>
       </c>
     </row>
-    <row r="263" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C263">
         <v>432</v>
       </c>
@@ -4945,7 +9965,7 @@
         <v>8.2566801043887101E-4</v>
       </c>
     </row>
-    <row r="264" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C264">
         <v>430</v>
       </c>
@@ -4953,7 +9973,7 @@
         <v>2.47142333894689E-3</v>
       </c>
     </row>
-    <row r="265" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C265">
         <v>426</v>
       </c>
@@ -4963,5 +9983,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>